--- a/Ageipelago Saladin.xlsx
+++ b/Ageipelago Saladin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{3B7C1B1A-253A-4772-BD48-CE4AC1339EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAF033F-260E-4AD5-982E-21E5592E41AB}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{3B7C1B1A-253A-4772-BD48-CE4AC1339EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC11DFB-BCCE-49F4-A80A-5E7D2AB0343B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEFAB4D2-F215-45BA-9EF6-82F1BCF340C6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEFAB4D2-F215-45BA-9EF6-82F1BCF340C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Saladin" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>The Lion and the Demon</t>
   </si>
@@ -52,31 +52,6 @@
   </si>
   <si>
     <t>Lord of Arabia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Just added </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Pyramids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> because… Why not?</t>
-    </r>
   </si>
   <si>
     <t>16 Light Cavalry
@@ -605,9 +580,6 @@
     </r>
   </si>
   <si>
-    <t>Not sure if the Enemies will give up with their Monestaries still standing, which can't be avoided due to the Defeat-condition. Might need a workaround.</t>
-  </si>
-  <si>
     <t>4 Villagers
 8 Archers of the Eyes
 8 Mamelukes
@@ -934,12 +906,1222 @@
   <si>
     <t>Defeating all Enemies is a Steam Achievement.</t>
   </si>
+  <si>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Army Player 7</t>
+  </si>
+  <si>
+    <t>Army Player 8</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Men-at-Arms
+12 Knights
+1 Scout
+17 Crossbowmen
+2 Throwing Axemen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Men-at-Arms
+12 Knights
+1 Scout
+21 Crossbowmen
+2 Throwing Axemen
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4 Camel Riders
+13 Archers
+10 Mamelukes
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Pikemen
+7 Knights
+4 Crossbowmen
+1 Onager
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15 Pikemen
+7 Knights
+4 Crossbowmen
+2 Onagers
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Standard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Pyramids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because… Why not?
+The only Ecplanation I've got for the Player 4 Army
+being bigger on Standard is that someone mixed up Standard and Moderate on Development…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Paladins
+2 Mangonels
+1 Trebuchet
+6 Galleons
+2 Fire Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8 Paladins
+1 Mangonel
+1 Trebuchet
+5 Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Paladins
+4 Onagers
+2 Trebuchets
+8 Galleons
+2 Fire Ships</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Crossbowmen
+10 Elite Skirmishers
+9 Paladins
+4 Light Cavalry
+3 Onagers
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Crossbowmen
+10 Elite Skirmishers
+9 Paladins
+4 Light Cavalry
+3 Onagers
+2 Battering Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Archers
+22 Crossbowmen
+5 Knights
+1 Mangonel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Archers
+22 Crossbowmen
+7 Knights
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Player need Monasteries and Monks to be unlocked to collect the Relic.
+The Player needs to have Docks and Transport Ships unlocked to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reynald's Pirates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reynald de Chatillon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The Player needs to have Cavalry Counter-Units unlocked to be able to kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reynald de Chatillon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, since he only appears for a few Moments.</t>
+    </r>
+  </si>
+  <si>
+    <t>Starting Units:
+12 Archers
+1 Battering Ram
+Later:
+10 Crossbowmen
+4 Scorpions
+2 Battering Rams</t>
+  </si>
+  <si>
+    <t>Starting Units:
+3 Crossbowmen
+Later:
+6 Crossbowmen
+8 Elite Skirmishers
+6 Knights
+2 Mangonels</t>
+  </si>
+  <si>
+    <t>Starting Units:
+5 Teutonic Knights
+2 Knights
+3 Monks
+Later:
+10 Long Swordsmen
+4 Knights
+4 Battering Rams</t>
+  </si>
+  <si>
+    <t>The Player need Monasteries and Monks to be unlocked to collect the Relic.</t>
+  </si>
+  <si>
+    <t>There seems to be no difference in Enemy Armies depending on Difficulty.</t>
+  </si>
+  <si>
+    <t>Not sure if the Enemies will give up with their Monasteries still standing, which can't be avoided due to the Defeat-Condition. Might need a Workaround.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Halberdiers
+10 Arbalesters
+4 Paladins
+8 Elite Cataphracts
+4 Onagers
+3 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Halberdiers
+10 Arbalesters
+4 Paladins
+8 Elite Cataphracts
+4 Onagers
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Halberdiers
+10 Arbalesters
+7 Paladins
+10 Elite Cataphracts
+4 Onagers
+3 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+3 Teutonic Knights
+4 Knights
+1 Scout
+3 Scorpions
+3 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Teutonic Knights
+10 Knights
+6 Scorpions
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+16 Teutonic Knights
+10 Knights
+6 Scorpions
+1 Monk</t>
+    </r>
+  </si>
+  <si>
+    <t>Starting Units:
+3 Long Swordsmen
+2 Teutonic Knights
+5 Knights
+1 Scout
+1 Mangonel
+1 Monk
+Later:
+10 Long Swordsmen
+15 Knights
+1 Scout
+4 Battering Rams</t>
+  </si>
+  <si>
+    <t>The Player need Monasteries and Monks to be unlocked to collect the Relics.</t>
+  </si>
+  <si>
+    <t>Starting Units:
+4 Men-at-Arms
+4 Cavalier
+2 Scouts
+1 Mangonel
+Later:
+6 Long Swordsmen
+10 Pikemen
+4 Knights
+2 Scorpions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moderate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6 Crossbowmen
+4 Knights
+2 Mangonels
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Standard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Crossbowmen
+3 Knights
+1 Mangonels</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Player need Monasteries and Monks to be unlocked to collect the Relics.
+The Player needs to have Docks, Warships and Transport Ships or Cannon Galleons unlocked to be able to fight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tyre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The Player needs to have Markets unlocked to be able to pay Tribute to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tiberias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>14 Crossbowmen
+8 Cavalier
+4 Onagers
+1 Galleon
+5 Fast Fire Ships
+4 Heavy Demolition Ships
+2 Cannon Galleons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+2 Trebuchets
+2 Galleons
+2 Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+17 Elite Serjeants
+4 Siege Onagers
+4 Trebuchets
+6 Galleons
+3 Fire Ships
+4 Heavy Demolition Ships
+3 Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+13 Elite Serjeants
+4 Siege Onagers
+6 Galleons
+3 Fire Ships
+4 Heavy Demolition Ships
+3 Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+21 Elite Serjeants
+4 Siege Onagers
+4 Trebuchets
+6 Galleons
+3 Fire Ships
+4 Heavy Demolition Ships
+3 Cannon Galleons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Savars
+8 Heavy Camel Riders
+4 Battering Rams
+2 Trebuchets
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+14 Savars
+8 Heavy Camel Riders
+4 Battering Rams
+3 Trebuchets
+2 Monks</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Long Swordsmen
+2 Halberdiers</t>
+  </si>
+  <si>
+    <t>Starting Units:
+2 Galleons
+2 Fast Fire Ships
+1 Cannon Galleon
+Later:
+4 Light Cavalry
+16 Galleons
+4 Demoliton Ships
+5 Elite Cannon Galleons</t>
+  </si>
+  <si>
+    <t>Starting Units:
+4 Paladins
+Later:
+10 Elite Teutonic Knights
+8 Paldins
+10 Capped Rams</t>
+  </si>
+  <si>
+    <t>Starting Units:
+4 Chevalier
+5 Elite Longbowmen
+2 Onagers
+Bad Neighbor
+God's Own Sling
+Later:
+12 Elite Longbowmen
+4 Scorpions
+6 Capped Rams
+3 Trebuchets</t>
+  </si>
+  <si>
+    <t>Starting Units:
+4 Light Cavalry
+Later:
+10 Champions
+10 Light Cavalry
+4 Onagers
+4 Trebuchets</t>
+  </si>
+  <si>
+    <t>Starting Units:
+4 Paladins
+2 Siege Rams
+3 Bombard Cannons
+Later:
+10 Paladins
+6 Hand Cannoneers
+8 Bombard Cannons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Player needs to have unlocked Warships to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF24E7FC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genoese</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+The Player needs to have unlocked Wonders to build a Wonder.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +2248,28 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24E7FC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1526,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F8AE1-B474-476C-B6B8-70AB02978081}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,165 +2746,303 @@
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="394.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
